--- a/App2/springer/csv/Springer_climate.xlsx
+++ b/App2/springer/csv/Springer_climate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="107">
   <si>
     <t xml:space="preserve">Keyword : </t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>2018-07-05T09:32:51.319588</t>
+    <t>2018-07-09T16:39:55.868618</t>
   </si>
   <si>
     <t>https://link.springer.com/article/10.1023/A%3A1004679732306</t>
@@ -209,6 +209,132 @@
   </si>
   <si>
     <t>2.Disaster Management CenterUniversity of WisconsinMadisonUSA</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1023/A%3A1002845227048</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Reddy, K.R., Hodges, H.F. (Ed.): Climate Change and Global Crop Productivity</t>
+  </si>
+  <si>
+    <t>Biologia Plantarum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2000,  | Volume 43,  |  pp 570–570 |  | Cite as | </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1023/A:1002845227048</t>
+  </si>
+  <si>
+    <t>J. Pospíšilová | 1.</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/BF00218532</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Relationships between climate of China and global climate: past, present and future</t>
+  </si>
+  <si>
+    <t>GeoJournal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 1983,  | Volume 7,  |  pp 567–567 |  | Cite as | </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/BF00218532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental Management </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Climate </t>
+  </si>
+  <si>
+    <t>Tu-Cheng Yeh | 1.</t>
+  </si>
+  <si>
+    <t>Jih-Ping Chao | 2.</t>
+  </si>
+  <si>
+    <t>Masatoshi Yoshino | 3.</t>
+  </si>
+  <si>
+    <t>1.Academia SinicaChina</t>
+  </si>
+  <si>
+    <t>2.Institute of Atmospheric Physics, Academia SinicaBeijingChina</t>
+  </si>
+  <si>
+    <t>3.(ICCL/IAMAP), University of TsukubaJapan</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00484-002-0157-8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Symposium: Interactions between Climate and Animal Production</t>
+  </si>
+  <si>
+    <t>International Journal of Biometeorology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2003,  | Volume 47,  |  pp 116–116 |  | Cite as | </t>
+  </si>
+  <si>
+    <t>First Online: 13 December 2002</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00484-002-0157-8</t>
+  </si>
+  <si>
+    <t>Cannot get author information</t>
+  </si>
+  <si>
+    <t>Cannot get affiliation</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1023/A%3A1005649219332</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Climate Variability, Climate Change and Water Resource Management in the Great Lakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2000,  | Volume 45,  |  pp 163–179 |  | Cite as | </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1023/A:1005649219332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Resource </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Management </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource Management </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management Practice </t>
+  </si>
+  <si>
+    <t>Rob C. de Loë | 1.</t>
+  </si>
+  <si>
+    <t>Reid D. Kreutzwiser | 1.</t>
+  </si>
+  <si>
+    <t>1.Department of GeographyUniversity of GuelphGuelphCanada</t>
   </si>
 </sst>
 </file>
@@ -553,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -911,6 +1037,321 @@
     <row r="24" spans="1:10">
       <c r="F24" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="H32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="F39" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="F40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="F42" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -924,6 +1365,14 @@
     <hyperlink ref="G17" r:id="rId7"/>
     <hyperlink ref="A18" r:id="rId8"/>
     <hyperlink ref="G20" r:id="rId9"/>
+    <hyperlink ref="A25" r:id="rId10"/>
+    <hyperlink ref="G27" r:id="rId11"/>
+    <hyperlink ref="A28" r:id="rId12"/>
+    <hyperlink ref="G30" r:id="rId13"/>
+    <hyperlink ref="A33" r:id="rId14"/>
+    <hyperlink ref="G35" r:id="rId15"/>
+    <hyperlink ref="A36" r:id="rId16"/>
+    <hyperlink ref="G38" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/App2/springer/csv/Springer_climate.xlsx
+++ b/App2/springer/csv/Springer_climate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="151">
   <si>
     <t xml:space="preserve">Keyword : </t>
   </si>
@@ -31,10 +31,10 @@
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>2018-07-09T16:39:55.868618</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1023/A%3A1004679732306</t>
+    <t>2018-07-11T17:19:14.144727</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1023/A%3A1005495627778</t>
   </si>
   <si>
     <t>S.No</t>
@@ -70,271 +70,403 @@
     <t>1</t>
   </si>
   <si>
-    <t>Climate Coalitions: The Science and Politics of Climate Change</t>
-  </si>
-  <si>
-    <t>Minerva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 1999,  | Volume 37,  |  pp 103–104 |  | Cite as | </t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1023/A:1004679732306</t>
+    <t>Workshop on Indices and Indicators for Climate Extremes: Asheville, NC, USA, 3–6 June 1997 Breakout Group B: Precipitation</t>
+  </si>
+  <si>
+    <t>Climatic Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 1999,  | Volume 42,  |  pp 23–29 |  | Cite as | </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1023/A:1005495627778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful Strategy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation Pattern </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concerted Effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate Extreme </t>
+  </si>
+  <si>
+    <t>Neville Nicholls | 1.</t>
+  </si>
+  <si>
+    <t>William Murray | 2.</t>
+  </si>
+  <si>
+    <t>Email is not available</t>
+  </si>
+  <si>
+    <t>1.BMRCBureau of Meteorology Research CentreMelbourneAustralia</t>
+  </si>
+  <si>
+    <t>2.NOAA Office of Global ProgramsSilver SpringUSA</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00704-017-2230-6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Climate and climate change in the Austrian–Swiss region of the European Alps during the twentieth century according to Feddema</t>
+  </si>
+  <si>
+    <t>Theoretical and Applied Climatology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pp 1–12 |  | Cite as | </t>
+  </si>
+  <si>
+    <t>First Online: 25 July 2017Received: 16 June 2016Accepted: 18 July 2017</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00704-017-2230-6</t>
+  </si>
+  <si>
+    <t>Ferenc Ács | 1.</t>
+  </si>
+  <si>
+    <t>Dominika Takács | 1.</t>
+  </si>
+  <si>
+    <t>Hajnalka Breuer | 1.</t>
+  </si>
+  <si>
+    <t>Nóra Skarbit | 2.</t>
+  </si>
+  <si>
+    <t>acs@caesar.elte.hu</t>
+  </si>
+  <si>
+    <t>1.Department of MeteorologyUniversity Eötvös LorántBudapestHungary</t>
+  </si>
+  <si>
+    <t>2.Department of Climatology and Landscape EcologyUniversity of SzegedSzegedHungary</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1038/physci242011a0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Solar Radiation Climate in a Subtropical Region</t>
+  </si>
+  <si>
+    <t>Nature Physical Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 1973,  | Volume 242,  |  pp 11–12 |  | Cite as | </t>
+  </si>
+  <si>
+    <t>Received: 03 January 1973</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/physci242011a0</t>
+  </si>
+  <si>
+    <t>O. CARTLEDGE | 21.</t>
+  </si>
+  <si>
+    <t>1.Department of BotanyUniversity of QueenslandSt LuciaAustralia</t>
+  </si>
+  <si>
+    <t>2.Queensland Wheat Research InstituteToo-woombaAustralia</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1023/A%3A1005444214754</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Canadian Freshwater Wetlands and Climate Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 1998,  | Volume 40,  |  pp 163–165 |  | Cite as | </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1023/A:1005444214754</t>
   </si>
   <si>
     <t xml:space="preserve">Climate Change </t>
   </si>
   <si>
-    <t xml:space="preserve">Climate Coalition </t>
-  </si>
-  <si>
-    <t>Peter Weingart | 1.</t>
-  </si>
-  <si>
-    <t>Email is not available</t>
-  </si>
-  <si>
-    <t>1.University of BielefeldUSA</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1023/B%3AMITI.0000027540.98192.40</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Climate Science and Climate Policy: Improving the Science/Policy Interface</t>
-  </si>
-  <si>
-    <t>Mitigation and Adaptation Strategies for Global Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 1996,  | Volume 1,  |  pp 73–93 |  | Cite as | </t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1023/B:MITI.0000027540.98192.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">climate change </t>
-  </si>
-  <si>
-    <t xml:space="preserve">climate policy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the Netherlands </t>
-  </si>
-  <si>
-    <t>J.H.G. Klabbers | 1.</t>
-  </si>
-  <si>
-    <t>R.J. Swart | 1.</t>
-  </si>
-  <si>
-    <t>R. Janssen | 1.</t>
-  </si>
-  <si>
-    <t>P. Vellinga | 1.</t>
-  </si>
-  <si>
-    <t>A.P. Van Ulden | 1.</t>
-  </si>
-  <si>
-    <t>1.Klabbers Management &amp; Policy Consultancy (KMPC)USA</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1023/A%3A1025857806820</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Reddy, K.R., Hodges, H.F. (ed.); Climate Change and Global Crop Productivity.</t>
-  </si>
-  <si>
-    <t>Photosynthetica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2003,  | Volume 41,  |  pp 8–8 |  | Cite as | </t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1023/A:1025857806820</t>
-  </si>
-  <si>
-    <t>J. Čatský | 1.</t>
-  </si>
-  <si>
-    <t>1.Praha</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1023/A%3A1005636932536</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Reducing Vulnerability to Climate Variability in Southern Africa: The Growing Role of Climate Information</t>
-  </si>
-  <si>
-    <t>Climatic Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2000,  | Volume 45,  |  pp 63–73 |  | Cite as | </t>
-  </si>
-  <si>
-    <t>First Online: 28 July 2014</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1023/A:1005636932536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seasonal Climate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climate Information </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climate Forecast </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regional Food </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drought Risk </t>
-  </si>
-  <si>
-    <t>Maxx Dilley | 12.</t>
-  </si>
-  <si>
-    <t>1.USAID Office of U.S. Foreign Disaster AssistanceWashingtonUSA</t>
-  </si>
-  <si>
-    <t>2.Disaster Management CenterUniversity of WisconsinMadisonUSA</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1023/A%3A1002845227048</t>
+    <t xml:space="preserve">Freshwater Wetland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canadian Freshwater </t>
+  </si>
+  <si>
+    <t>Thomas A. Clair | 1.</t>
+  </si>
+  <si>
+    <t>1.Environment Canada-Atlantic RegionSackvilleCanada</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s10933-012-9635-0</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>Reddy, K.R., Hodges, H.F. (Ed.): Climate Change and Global Crop Productivity</t>
-  </si>
-  <si>
-    <t>Biologia Plantarum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2000,  | Volume 43,  |  pp 570–570 |  | Cite as | </t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1023/A:1002845227048</t>
-  </si>
-  <si>
-    <t>J. Pospíšilová | 1.</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1007/BF00218532</t>
+    <t>Regional climate gradients in precipitation and temperature in response to climate teleconnections in the Greater Everglades ecosystem of South Florida</t>
+  </si>
+  <si>
+    <t>Journal of Paleolimnology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2013,  | Volume 49,  |  pp 5–14 |  | Cite as | </t>
+  </si>
+  <si>
+    <t>First Online: 04 December 2012Received: 19 October 2011Accepted: 18 July 2012</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10933-012-9635-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate gradients </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everglades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSO </t>
+  </si>
+  <si>
+    <t>Christopher S. Moses | 1.</t>
+  </si>
+  <si>
+    <t>William T. Anderson | 12.</t>
+  </si>
+  <si>
+    <t>Colin Saunders | 3.</t>
+  </si>
+  <si>
+    <t>Fred Sklar | 3.</t>
+  </si>
+  <si>
+    <t>andersow@fiu.edu</t>
+  </si>
+  <si>
+    <t>1.Southeast Environmental Research CenterFlorida International UniversityMiamiUSA</t>
+  </si>
+  <si>
+    <t>2.Marine Sciences Program, Earth and Environment DepartmentFlorida International UniversityNorth MiamiUSA</t>
+  </si>
+  <si>
+    <t>3.South Florida Water Management DistrictWest Palm BeachUSA</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/BF01903423</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>Relationships between climate of China and global climate: past, present and future</t>
-  </si>
-  <si>
-    <t>GeoJournal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 1983,  | Volume 7,  |  pp 567–567 |  | Cite as | </t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1007/BF00218532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environmental Management </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Climate </t>
-  </si>
-  <si>
-    <t>Tu-Cheng Yeh | 1.</t>
-  </si>
-  <si>
-    <t>Jih-Ping Chao | 2.</t>
-  </si>
-  <si>
-    <t>Masatoshi Yoshino | 3.</t>
-  </si>
-  <si>
-    <t>1.Academia SinicaChina</t>
-  </si>
-  <si>
-    <t>2.Institute of Atmospheric Physics, Academia SinicaBeijingChina</t>
-  </si>
-  <si>
-    <t>3.(ICCL/IAMAP), University of TsukubaJapan</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1007/s00484-002-0157-8</t>
+    <t>Land surface-atmosphere interactions for climate modeling</t>
+  </si>
+  <si>
+    <t>Surveys in Geophysics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 1991,  | Volume 12,  |  pp 315–315 |  | Cite as | </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/BF01903423</t>
+  </si>
+  <si>
+    <t>Eric F. Wood | 1.</t>
+  </si>
+  <si>
+    <t>1.Water Resources ProgramPrinceton UniversityU.S.A.</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1023/B%3ACLIM.0000044677.41293.39</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>Symposium: Interactions between Climate and Animal Production</t>
-  </si>
-  <si>
-    <t>International Journal of Biometeorology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2003,  | Volume 47,  |  pp 116–116 |  | Cite as | </t>
-  </si>
-  <si>
-    <t>First Online: 13 December 2002</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1007/s00484-002-0157-8</t>
-  </si>
-  <si>
-    <t>Cannot get author information</t>
-  </si>
-  <si>
-    <t>Cannot get affiliation</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1023/A%3A1005649219332</t>
+    <t>A Good Climate for Clean Air: Linkages between Climate Change and Air Pollution. An Editorial Essay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2004,  | Volume 66,  |  pp 263–269 |  | Cite as | </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1023/B:CLIM.0000044677.41293.39</t>
+  </si>
+  <si>
+    <t>Rob Swart | 1.</t>
+  </si>
+  <si>
+    <t>Markus Amann | 2.</t>
+  </si>
+  <si>
+    <t>Frank Raes | 3.</t>
+  </si>
+  <si>
+    <t>Willemijn Tuinstra | 1.</t>
+  </si>
+  <si>
+    <t>1.Netherlands Environmental Assessment AgencyNational Institute For Public Health And EnvironmentBilthovenThe Netherlands</t>
+  </si>
+  <si>
+    <t>2.International Institute for Applied Systems AnalysisLaxenburgAustria</t>
+  </si>
+  <si>
+    <t>3.Climate Change Unit, Joint Research CentreVia Enrico FermiIspraItaly</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00382-015-2727-6</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>Climate Variability, Climate Change and Water Resource Management in the Great Lakes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2000,  | Volume 45,  |  pp 163–179 |  | Cite as | </t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1023/A:1005649219332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Resource </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Management </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource Management </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Management Practice </t>
-  </si>
-  <si>
-    <t>Rob C. de Loë | 1.</t>
-  </si>
-  <si>
-    <t>Reid D. Kreutzwiser | 1.</t>
-  </si>
-  <si>
-    <t>1.Department of GeographyUniversity of GuelphGuelphCanada</t>
+    <t>Deficiencies in the simulation of the geographic distribution of climate types by global climate models</t>
+  </si>
+  <si>
+    <t>Climate Dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2016,  | Volume 46,  |  pp 2749–2757 |  | Cite as | </t>
+  </si>
+  <si>
+    <t>First Online: 08 July 2015Received: 23 April 2014Accepted: 22 June 2015</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00382-015-2727-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model evaluation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spatial distribution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCMs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regional climate pattern </t>
+  </si>
+  <si>
+    <t>Xianliang Zhang | 1.</t>
+  </si>
+  <si>
+    <t>Xiaodong Yan | 2.</t>
+  </si>
+  <si>
+    <t>zhangxianliang@syau.edu.cn</t>
+  </si>
+  <si>
+    <t>yxd@bnu.edu.cn</t>
+  </si>
+  <si>
+    <t>1.College of ForestryShenyang Agriculture UniversityShenyangChina</t>
+  </si>
+  <si>
+    <t>2.State Key Laboratory of Earth Surface Processes and Resource EcologyBeijing Normal UniversityBeijingChina</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00382-008-0470-y</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>The influence of prescribed soil type distribution on the representation of present climate in a regional climate model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2009,  | Volume 33,  |  pp 177–186 |  | Cite as | </t>
+  </si>
+  <si>
+    <t>First Online: 19 October 2008Received: 06 February 2008Accepted: 12 September 2008</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00382-008-0470-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil moisture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regional climate modelling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer drying </t>
+  </si>
+  <si>
+    <t>Ivonne Anders | 1.</t>
+  </si>
+  <si>
+    <t>Burkhardt Rockel | 1.</t>
+  </si>
+  <si>
+    <t>ivonne.anders@gkss.de</t>
+  </si>
+  <si>
+    <t>1.Institute for Coastal Research, Regional Atmospheric Modelling GroupGKSS Research CenterGeesthachtGermany</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00704-011-0448-2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>What will a new generation of world climate research and computing facilities bring to climate long-term predictions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2011,  | Volume 106,  |  pp 473–479 |  | Cite as | </t>
+  </si>
+  <si>
+    <t>First Online: 01 May 2011Received: 26 January 2011Accepted: 16 April 2011</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00704-011-0448-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate Sensitivity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate Science </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Surface Temperature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decadal Prediction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crucial Experiment </t>
+  </si>
+  <si>
+    <t>Angelo Rubino | 1.</t>
+  </si>
+  <si>
+    <t>rubino@unive.it</t>
+  </si>
+  <si>
+    <t>1.Department of Environmental Sciences, Informatics and StatisticsUniversity of VeniceVeniceItaly</t>
   </si>
 </sst>
 </file>
@@ -679,7 +811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,114 +898,108 @@
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="F7" t="s">
         <v>23</v>
       </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
+      <c r="F8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" t="s">
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H12" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I12" t="s">
         <v>15</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="I11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
       <c r="H13" t="s">
         <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -881,167 +1007,176 @@
         <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="H16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F18" t="s">
         <v>12</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H18" t="s">
         <v>14</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I18" t="s">
         <v>15</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J18" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E21" t="s">
         <v>11</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G21" t="s">
         <v>13</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H21" t="s">
         <v>14</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I21" t="s">
         <v>15</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="F21" t="s">
+      <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="J21" t="s">
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="F22" t="s">
-        <v>59</v>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="F23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="F24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1078,280 +1213,511 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="1" t="s">
-        <v>72</v>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J29" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="F30" t="s">
         <v>75</v>
       </c>
-      <c r="D30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="F31" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="H32" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" t="s">
-        <v>85</v>
+      <c r="F32" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="1" t="s">
-        <v>86</v>
+      <c r="F33" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" t="s">
-        <v>16</v>
+      <c r="A34" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
         <v>88</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
         <v>89</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C36" t="s">
         <v>90</v>
       </c>
-      <c r="E35" t="s">
+      <c r="D36" t="s">
         <v>91</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
         <v>93</v>
       </c>
-      <c r="I35" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
         <v>96</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>97</v>
       </c>
-      <c r="C38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
         <v>98</v>
       </c>
-      <c r="E38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" t="s">
         <v>104</v>
       </c>
-      <c r="I38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J38" t="s">
+    </row>
+    <row r="40" spans="1:10">
+      <c r="H40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="H41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="F39" t="s">
-        <v>100</v>
-      </c>
-      <c r="H39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="F40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="F41" t="s">
-        <v>102</v>
-      </c>
-    </row>
     <row r="42" spans="1:10">
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>103</v>
+      </c>
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" t="s">
+        <v>118</v>
+      </c>
+      <c r="I45" t="s">
+        <v>120</v>
+      </c>
+      <c r="J45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="F46" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I46" t="s">
+        <v>121</v>
+      </c>
+      <c r="J46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="F47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="F48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" t="s">
+        <v>128</v>
+      </c>
+      <c r="F51" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H51" t="s">
+        <v>133</v>
+      </c>
+      <c r="I51" t="s">
+        <v>135</v>
+      </c>
+      <c r="J51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="F52" t="s">
+        <v>131</v>
+      </c>
+      <c r="H52" t="s">
+        <v>134</v>
+      </c>
+      <c r="I52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="F53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H56" t="s">
+        <v>148</v>
+      </c>
+      <c r="I56" t="s">
+        <v>149</v>
+      </c>
+      <c r="J56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="F57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="F58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="F59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="F60" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1359,20 +1725,24 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
     <hyperlink ref="G6" r:id="rId3"/>
-    <hyperlink ref="A8" r:id="rId4"/>
-    <hyperlink ref="G10" r:id="rId5"/>
-    <hyperlink ref="A15" r:id="rId6"/>
-    <hyperlink ref="G17" r:id="rId7"/>
-    <hyperlink ref="A18" r:id="rId8"/>
-    <hyperlink ref="G20" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId4"/>
+    <hyperlink ref="G13" r:id="rId5"/>
+    <hyperlink ref="A17" r:id="rId6"/>
+    <hyperlink ref="G19" r:id="rId7"/>
+    <hyperlink ref="A20" r:id="rId8"/>
+    <hyperlink ref="G22" r:id="rId9"/>
     <hyperlink ref="A25" r:id="rId10"/>
     <hyperlink ref="G27" r:id="rId11"/>
-    <hyperlink ref="A28" r:id="rId12"/>
-    <hyperlink ref="G30" r:id="rId13"/>
-    <hyperlink ref="A33" r:id="rId14"/>
-    <hyperlink ref="G35" r:id="rId15"/>
-    <hyperlink ref="A36" r:id="rId16"/>
-    <hyperlink ref="G38" r:id="rId17"/>
+    <hyperlink ref="A34" r:id="rId12"/>
+    <hyperlink ref="G36" r:id="rId13"/>
+    <hyperlink ref="A37" r:id="rId14"/>
+    <hyperlink ref="G39" r:id="rId15"/>
+    <hyperlink ref="A43" r:id="rId16"/>
+    <hyperlink ref="G45" r:id="rId17"/>
+    <hyperlink ref="A49" r:id="rId18"/>
+    <hyperlink ref="G51" r:id="rId19"/>
+    <hyperlink ref="A54" r:id="rId20"/>
+    <hyperlink ref="G56" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/App2/springer/csv/Springer_climate.xlsx
+++ b/App2/springer/csv/Springer_climate.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Keyword : </t>
   </si>
   <si>
-    <t>climate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Database : </t>
   </si>
   <si>
@@ -31,7 +28,7 @@
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>2018-07-16T14:39:27.187367</t>
+    <t>2018-07-18T17:06:04.216793</t>
   </si>
   <si>
     <t>S.No</t>
@@ -68,6 +65,54 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s41870-018-0136-x</t>
+  </si>
+  <si>
+    <t>Identification of essential parameters for post graduate students’ job placement in computer applications in India</t>
+  </si>
+  <si>
+    <t>International Journal of Information Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2018,  | Volume 10,  |  pp 511–518 |  | Cite as | </t>
+  </si>
+  <si>
+    <t>First Online: 09 April 2018Received: 20 November 2017Accepted: 02 April 2018</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s41870-018-0136-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job placement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGPA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under graduation (UG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post graduation (PG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer applications </t>
+  </si>
+  <si>
+    <t>Chirag Patel | 1.</t>
+  </si>
+  <si>
+    <t>chiragpatel.mca@charusat.ac.in</t>
+  </si>
+  <si>
+    <t>1.Smt. Chandaben Mohanbhai Patel Institute of Computer Applications, CHARUSATChanga, AnandIndia</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -412,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,67 +467,124 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" t="s">
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
         <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="G9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="H5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
